--- a/places_aayushi_visited.xlsx
+++ b/places_aayushi_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayushiverma/Documents/Github/world-exploration-map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1698D87-FCB8-D046-8390-C91DAB4D79AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9170CA1-72BF-5C4A-A802-FC075F28343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-260" yWindow="500" windowWidth="18980" windowHeight="19340" xr2:uid="{A76A3374-AE1A-B54F-972B-2CBFACF199FD}"/>
   </bookViews>
@@ -634,7 +634,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C23" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
